--- a/data/ScenarioQualityChecker.xlsx
+++ b/data/ScenarioQualityChecker.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="25605" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="23256" windowHeight="14616" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Opis" sheetId="3" r:id="rId1"/>
     <sheet name="Product Backlog" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint Backlog #1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Element rejestru produktu</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Logger</t>
   </si>
   <si>
-    <t>Wizytator będzie użyty do analizy scenariuszy I pod-scenariuszy</t>
-  </si>
-  <si>
     <t>Utworzenie obiektów</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Stworzenie metody, która wywołuje funkcję danego użytkownika</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -237,12 +237,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -275,7 +281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -305,6 +311,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -388,6 +406,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E14"/>
+  <sortState ref="A2:E14">
+    <sortCondition descending="1" ref="B1:B14"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Element rejestru produktu" dataDxfId="8"/>
     <tableColumn id="2" name="Ważność" dataDxfId="7"/>
@@ -739,22 +760,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.4">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="84.95" customHeight="1">
+    <row r="2" spans="1:1" ht="84.9" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="393.75">
+    <row r="5" spans="1:1" ht="390">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -773,20 +794,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="52" style="3" customWidth="1"/>
     <col min="2" max="2" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.09765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -803,147 +824,189 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="126">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="124.8">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="12">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="78">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="78.75">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="78">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="126">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="124.8">
+      <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.5">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="93.6">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="12">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
         <v>1.5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="126">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="124.8">
+      <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="12">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5">
+    <row r="8" spans="1:5" ht="31.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="4">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="14">
+        <v>10</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="B10" s="14">
+        <v>10</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="31.5">
-      <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="B13" s="14">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -968,13 +1031,13 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="45.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.09765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -983,7 +1046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75">
+    <row r="4" spans="1:3" ht="18">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25">
+    <row r="5" spans="1:3" ht="46.8">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1067,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -1012,12 +1075,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.2">
+      <c r="B8" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5">
-      <c r="B8" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
